--- a/50_重要/学习笔记_源代码管理工具_TortoiseGit.xlsx
+++ b/50_重要/学习笔记_源代码管理工具_TortoiseGit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
   <si>
     <r>
       <rPr>
@@ -2290,12 +2290,39 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1、利用TortoiseGit下的【PuTTYgen】工具生成SSH密钥，分别保存私钥和公钥为文件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TortoiseGit使用同一个SSH密钥绑定GitHub和Gitee：2022-04-19测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、分别登录Github和Gitee网站，增加该公钥配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、修改的网络配置中的SSH客户端，使用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files\TortoiseGit\bin\TortoisePlink.exe</t>
+  </si>
+  <si>
+    <t>4、复制Github或Gitee上的远程仓库代码地址，然后在存放代码的地方右击选【Git Clone...】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、选择之前保存的SSH私钥文件，并选中【加载Putty密钥】，这样以后就可以直接更新Github和Gitee项目了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2408,13 +2435,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2575,6 +2595,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2710,7 +2746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2749,20 +2785,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2772,7 +2805,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2791,13 +2824,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2807,10 +2840,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2818,11 +2851,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2832,6 +2865,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2898,7 +2935,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010151652326-2092757386.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE38DA13-CB3F-42E4-A407-E5C27251A124}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE38DA13-CB3F-42E4-A407-E5C27251A124}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +3001,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152025731-111221590.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF700D7F-65FA-4809-85CD-C11B2F560B84}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF700D7F-65FA-4809-85CD-C11B2F560B84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3067,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152055620-320591506.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A623BA3-AD01-4C7B-BB0E-8B978B0FB181}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A623BA3-AD01-4C7B-BB0E-8B978B0FB181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3133,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152537013-350707196.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5512D736-2661-47C5-8356-AD12B2935D32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5512D736-2661-47C5-8356-AD12B2935D32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3199,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152642999-1875668931.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{253D155D-F032-46A4-AAC3-1D8803961B9A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253D155D-F032-46A4-AAC3-1D8803961B9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3265,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152715953-552209968.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCCDAE89-9C5F-4D1A-A234-E909DF445C58}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCDAE89-9C5F-4D1A-A234-E909DF445C58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3331,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010152952345-1845980296.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C2CFEE8-49B3-417C-AEFB-FF21CBA12ED8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2CFEE8-49B3-417C-AEFB-FF21CBA12ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3397,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="https://img2018.cnblogs.com/blog/1211355/201810/1211355-20181010153019606-1338675791.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86BBA805-F036-4556-897A-B2BF9F004326}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BBA805-F036-4556-897A-B2BF9F004326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3463,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715111759530-1995117957.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32046496-C35A-4093-BCA4-5308AFBA77C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32046496-C35A-4093-BCA4-5308AFBA77C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3519,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715111812323-769649699.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D738BC6E-AA92-4E58-A35B-6E31E01DED99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D738BC6E-AA92-4E58-A35B-6E31E01DED99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3575,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715111924555-1585599313.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88F96E4-E6CA-4934-BDB6-46F3C9201BF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F96E4-E6CA-4934-BDB6-46F3C9201BF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3636,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715111951451-1345753291.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47DE0769-50A0-43B9-B118-E28173CA52C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DE0769-50A0-43B9-B118-E28173CA52C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,7 +3692,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112003745-2010648467.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C807A525-C17B-451E-BC2A-E156750EE8F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C807A525-C17B-451E-BC2A-E156750EE8F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3748,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112209499-506577837.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7803A8E-8D45-4581-B280-9F69AC77E48D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7803A8E-8D45-4581-B280-9F69AC77E48D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,7 +3809,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112336418-408948865.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4E90065-4E3C-4AC9-BE20-A2D75C4DD953}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E90065-4E3C-4AC9-BE20-A2D75C4DD953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,7 +3870,7 @@
         <xdr:cNvPr id="10" name="Picture 9" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112340290-1252272067.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2D4FFA-E43E-4F21-AD39-C1D1188A805C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2D4FFA-E43E-4F21-AD39-C1D1188A805C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3931,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112352158-731891961.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D97AD366-5D35-4E53-A739-EA2D98AF10AF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97AD366-5D35-4E53-A739-EA2D98AF10AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,7 +3992,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E11BE5D-633E-4EED-BEE8-CDCDD6AEC3CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E11BE5D-633E-4EED-BEE8-CDCDD6AEC3CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,7 +4053,7 @@
         <xdr:cNvPr id="19" name="Picture 18" descr="https://img-blog.csdn.net/20180807154338581?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C29ECD5D-078F-4D3B-98FA-D4A23F65893D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29ECD5D-078F-4D3B-98FA-D4A23F65893D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4077,7 +4114,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="https://img-blog.csdn.net/20180807151249468?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55288745-6FD7-4D12-AEB1-7ABC1886F789}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55288745-6FD7-4D12-AEB1-7ABC1886F789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4175,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B89B763-FD7A-406D-A8E6-381D0425D857}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B89B763-FD7A-406D-A8E6-381D0425D857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4236,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{651F7462-574F-4F8E-9201-BB87AF4F958B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651F7462-574F-4F8E-9201-BB87AF4F958B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,7 +4297,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3EDD8768-CF5A-45A3-8C7E-0CF1CD9AD0B8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDD8768-CF5A-45A3-8C7E-0CF1CD9AD0B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4326,7 +4363,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEF9AAD-7E52-413B-A586-9EE99CEE7945}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEF9AAD-7E52-413B-A586-9EE99CEE7945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4424,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D57C3DE3-1629-40F8-B301-430BEDA6D6F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57C3DE3-1629-40F8-B301-430BEDA6D6F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4448,7 +4485,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D6BF9E1-337D-45EA-B718-110F7AA22973}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6BF9E1-337D-45EA-B718-110F7AA22973}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4546,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112828691-582741132.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDC24602-1AEC-426C-90FD-31F74D017996}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC24602-1AEC-426C-90FD-31F74D017996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,7 +4607,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112918459-546623280.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B151770-DE2A-4046-A281-CB1F4CC95F41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B151770-DE2A-4046-A281-CB1F4CC95F41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4631,7 +4668,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715112932476-1310875564.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39A4FB52-B357-443C-9F90-D104C01BB8BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A4FB52-B357-443C-9F90-D104C01BB8BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4692,7 +4729,7 @@
         <xdr:cNvPr id="8" name="Picture 7" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180715113022351-128360033.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60FEA8F1-62D1-44A4-8AC4-5D61EA8F2149}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FEA8F1-62D1-44A4-8AC4-5D61EA8F2149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4753,7 +4790,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6363F952-35C6-4603-8343-BE5AB28DC7A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6363F952-35C6-4603-8343-BE5AB28DC7A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +4846,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3940CA8-4C1B-467B-B5A2-D54564ECE4C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3940CA8-4C1B-467B-B5A2-D54564ECE4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4917,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{034E6939-BF78-4E34-B3B6-CE53ACBDF619}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034E6939-BF78-4E34-B3B6-CE53ACBDF619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4915,6 +4952,171 @@
             <a:srgbClr val="FFC000"/>
           </a:glow>
         </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="771525" y="6134100"/>
+          <a:ext cx="5772150" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="11715750"/>
+          <a:ext cx="7391400" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="942975" y="18402300"/>
+          <a:ext cx="6000750" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -5315,7 +5517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5520,351 +5722,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P304"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N153" sqref="N153"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
+      <c r="B31" s="25"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="39"/>
+      <c r="B58" s="38"/>
       <c r="C58" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="42" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="25"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="19"/>
+      <c r="B79" s="18"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="19"/>
+      <c r="B80" s="18"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="19"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="19"/>
+      <c r="B83" s="18"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="19"/>
+      <c r="B84" s="18"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="19"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="19"/>
+      <c r="B86" s="18"/>
       <c r="P86" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="19"/>
-      <c r="P87" s="41" t="s">
+      <c r="B87" s="18"/>
+      <c r="P87" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="49" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="43" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="47" t="s">
+      <c r="C119" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C120" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="P159" s="41"/>
+      <c r="P159" s="40"/>
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B160" s="24" t="s">
+      <c r="B160" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="P160" s="41"/>
+      <c r="P160" s="40"/>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="P161" s="41"/>
+      <c r="P161" s="40"/>
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
@@ -5880,26 +6082,26 @@
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="41" t="s">
+      <c r="C182" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="48" t="s">
+      <c r="B201" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="19"/>
+      <c r="B202" s="18"/>
       <c r="C202" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="25"/>
+      <c r="B204" s="24"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="19"/>
+      <c r="B216" s="18"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
@@ -5907,96 +6109,96 @@
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="41" t="s">
+      <c r="B219" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B220" s="20" t="s">
+      <c r="B220" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B265" s="19"/>
-      <c r="P265" s="41"/>
+      <c r="B265" s="18"/>
+      <c r="P265" s="40"/>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B266" s="19"/>
-      <c r="P266" s="41"/>
+      <c r="B266" s="18"/>
+      <c r="P266" s="40"/>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B267" s="19"/>
-      <c r="P267" s="41"/>
+      <c r="B267" s="18"/>
+      <c r="P267" s="40"/>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P268" s="41"/>
+      <c r="P268" s="40"/>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B269" s="19"/>
-      <c r="P269" s="41"/>
+      <c r="B269" s="18"/>
+      <c r="P269" s="40"/>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B270" s="19"/>
-      <c r="P270" s="41"/>
+      <c r="B270" s="18"/>
+      <c r="P270" s="40"/>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B271" s="19"/>
-      <c r="P271" s="41"/>
+      <c r="B271" s="18"/>
+      <c r="P271" s="40"/>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B272" s="19"/>
-      <c r="P272" s="41"/>
+      <c r="B272" s="18"/>
+      <c r="P272" s="40"/>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B273" s="19"/>
-      <c r="P273" s="41"/>
+      <c r="B273" s="18"/>
+      <c r="P273" s="40"/>
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B274" s="19"/>
-      <c r="P274" s="41"/>
+      <c r="B274" s="18"/>
+      <c r="P274" s="40"/>
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B275" s="19"/>
-      <c r="P275" s="41"/>
+      <c r="B275" s="18"/>
+      <c r="P275" s="40"/>
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B276" s="19"/>
-      <c r="P276" s="41"/>
+      <c r="B276" s="18"/>
+      <c r="P276" s="40"/>
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B277" s="19"/>
-      <c r="P277" s="41"/>
+      <c r="B277" s="18"/>
+      <c r="P277" s="40"/>
     </row>
     <row r="278" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B278" s="19"/>
-      <c r="P278" s="41"/>
+      <c r="B278" s="18"/>
+      <c r="P278" s="40"/>
     </row>
     <row r="279" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B279" s="19"/>
-      <c r="P279" s="41"/>
+      <c r="B279" s="18"/>
+      <c r="P279" s="40"/>
     </row>
     <row r="280" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B280" s="19"/>
-      <c r="P280" s="41"/>
+      <c r="B280" s="18"/>
+      <c r="P280" s="40"/>
     </row>
     <row r="281" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B281" s="19"/>
-      <c r="P281" s="41"/>
+      <c r="B281" s="18"/>
+      <c r="P281" s="40"/>
     </row>
     <row r="282" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B282" s="19"/>
-      <c r="P282" s="41"/>
+      <c r="B282" s="18"/>
+      <c r="P282" s="40"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="19"/>
+      <c r="B303" s="18"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="19"/>
+      <c r="B304" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6449,12 +6651,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6469,7 +6671,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6479,7 +6681,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6489,7 +6691,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6524,7 +6726,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6537,38 +6739,38 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="20"/>
+      <c r="B149" s="19"/>
       <c r="C149" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B177" s="20" t="s">
+      <c r="B177" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6589,22 +6791,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6860,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
